--- a/metrics/MAPE/upto time/Angina (UPTO).xlsx
+++ b/metrics/MAPE/upto time/Angina (UPTO).xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11189851768389.54</v>
+        <v>11129729137886.58</v>
       </c>
       <c r="C3" t="n">
-        <v>11326550349673.84</v>
+        <v>11002901618187.96</v>
       </c>
       <c r="D3" t="n">
-        <v>11338477983041.05</v>
+        <v>11246059384807.75</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11731939079897.62</v>
+        <v>12010667729121.11</v>
       </c>
       <c r="C4" t="n">
-        <v>11897997554353.62</v>
+        <v>11775078693063.75</v>
       </c>
       <c r="D4" t="n">
-        <v>11840223705990.02</v>
+        <v>12044881519956.02</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89151035617364.06</v>
+        <v>87077785836864.77</v>
       </c>
       <c r="C5" t="n">
-        <v>115264385177896.3</v>
+        <v>30780435827466.01</v>
       </c>
       <c r="D5" t="n">
-        <v>81036872540644.89</v>
+        <v>33814856421162.99</v>
       </c>
     </row>
   </sheetData>
